--- a/assignment_05/measurments.xlsx
+++ b/assignment_05/measurments.xlsx
@@ -1,87 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidedesclavis/Documents/WS-2020:21/ParalleleSysteme/GIT/parallel_systems/assignment_05/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE34FA5-3B41-2C44-898D-408D5059DFE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23860" windowHeight="14860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="_xlchart.v1.0" vbProcedure="false">Tabelle1!$M$10:$S$10</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.1" vbProcedure="false">Tabelle1!$M$11:$S$11</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.2" vbProcedure="false">Tabelle1!$M$12:$S$12</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.20" vbProcedure="false">Tabelle1!$M$10:$S$10</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.21" vbProcedure="false">Tabelle1!$M$11:$S$11</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.22" vbProcedure="false">Tabelle1!$M$12:$S$12</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.23" vbProcedure="false">Tabelle1!$M$13:$S$13</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.24" vbProcedure="false">Tabelle1!$M$4:$S$4</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.25" vbProcedure="false">Tabelle1!$M$5:$S$5</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.26" vbProcedure="false">Tabelle1!$M$6:$S$6</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.27" vbProcedure="false">Tabelle1!$M$7:$S$7</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.28" vbProcedure="false">Tabelle1!$M$8:$S$8</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.29" vbProcedure="false">Tabelle1!$M$9:$S$9</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.3" vbProcedure="false">Tabelle1!$M$13:$S$13</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.4" vbProcedure="false">Tabelle1!$M$4:$S$4</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.44" vbProcedure="false">Tabelle1!$AA$4</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.45" vbProcedure="false">Tabelle1!$AA$5:$AA$13</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.46" vbProcedure="false">Tabelle1!$AB$4</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.47" vbProcedure="false">Tabelle1!$AB$5:$AB$13</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.48" vbProcedure="false">Tabelle1!$V$4</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.49" vbProcedure="false">Tabelle1!$V$5:$V$13</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.5" vbProcedure="false">Tabelle1!$M$5:$S$5</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.50" vbProcedure="false">Tabelle1!$W$4</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.51" vbProcedure="false">Tabelle1!$W$5:$W$13</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.52" vbProcedure="false">Tabelle1!$X$4</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.53" vbProcedure="false">Tabelle1!$X$5:$X$13</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.54" vbProcedure="false">Tabelle1!$Y$4</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.55" vbProcedure="false">Tabelle1!$Y$5:$Y$13</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.56" vbProcedure="false">Tabelle1!$Z$4</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.57" vbProcedure="false">Tabelle1!$Z$5:$Z$13</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.58" vbProcedure="false">Tabelle1!$V$10:$AB$10</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.59" vbProcedure="false">Tabelle1!$V$11:$AB$11</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.6" vbProcedure="false">Tabelle1!$M$6:$S$6</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.60" vbProcedure="false">Tabelle1!$V$12:$AB$12</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.61" vbProcedure="false">Tabelle1!$V$13:$AB$13</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.62" vbProcedure="false">Tabelle1!$V$4:$AB$4</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.63" vbProcedure="false">Tabelle1!$V$5:$AB$5</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.64" vbProcedure="false">Tabelle1!$V$6:$AB$6</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.65" vbProcedure="false">Tabelle1!$V$7:$AB$7</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.66" vbProcedure="false">Tabelle1!$V$8:$AB$8</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.67" vbProcedure="false">Tabelle1!$V$9:$AB$9</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.7" vbProcedure="false">Tabelle1!$M$7:$S$7</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.8" vbProcedure="false">Tabelle1!$M$8:$S$8</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v1.9" vbProcedure="false">Tabelle1!$M$9:$S$9</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.10" vbProcedure="false">Tabelle1!$V$10:$AB$10</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.11" vbProcedure="false">Tabelle1!$V$11:$AB$11</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.12" vbProcedure="false">Tabelle1!$V$12:$AB$12</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.13" vbProcedure="false">Tabelle1!$V$13:$AB$13</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.14" vbProcedure="false">Tabelle1!$V$4:$AB$4</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.15" vbProcedure="false">Tabelle1!$V$5:$AB$5</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.16" vbProcedure="false">Tabelle1!$V$6:$AB$6</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.17" vbProcedure="false">Tabelle1!$V$7:$AB$7</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.18" vbProcedure="false">Tabelle1!$V$8:$AB$8</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.19" vbProcedure="false">Tabelle1!$V$9:$AB$9</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.30" vbProcedure="false">Tabelle1!$AA$4</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.31" vbProcedure="false">Tabelle1!$AA$5:$AA$13</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.32" vbProcedure="false">Tabelle1!$AB$4</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.33" vbProcedure="false">Tabelle1!$AB$5:$AB$13</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.34" vbProcedure="false">Tabelle1!$V$4</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.35" vbProcedure="false">Tabelle1!$V$5:$V$13</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.36" vbProcedure="false">Tabelle1!$W$4</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.37" vbProcedure="false">Tabelle1!$W$5:$W$13</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.38" vbProcedure="false">Tabelle1!$X$4</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.39" vbProcedure="false">Tabelle1!$X$5:$X$13</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.40" vbProcedure="false">Tabelle1!$Y$4</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.41" vbProcedure="false">Tabelle1!$Y$5:$Y$13</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.42" vbProcedure="false">Tabelle1!$Z$4</definedName>
-    <definedName function="false" hidden="false" name="_xlchart.v2.43" vbProcedure="false">Tabelle1!$Z$5:$Z$13</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Tabelle1!$J$68</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Tabelle1!$J$69:$J$72</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Tabelle1!$K$68</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Tabelle1!$K$69:$K$72</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -90,48 +40,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
-    <t xml:space="preserve">Measurements</t>
+    <t>Measurements</t>
   </si>
   <si>
-    <t xml:space="preserve">nBody2D with 100 timesteps</t>
+    <t>nBody2D with 100 timesteps</t>
   </si>
   <si>
-    <t xml:space="preserve">run</t>
+    <t>run</t>
   </si>
   <si>
-    <t xml:space="preserve">10 particles</t>
+    <t>10 particles</t>
   </si>
   <si>
-    <t xml:space="preserve">100 particles</t>
+    <t>100 particles</t>
   </si>
   <si>
-    <t xml:space="preserve">500 particles</t>
+    <t>500 particles</t>
   </si>
   <si>
-    <t xml:space="preserve">1000 particles</t>
+    <t>1000 particles</t>
   </si>
   <si>
-    <t xml:space="preserve">10000 particles</t>
+    <t>10000 particles</t>
   </si>
   <si>
-    <t xml:space="preserve">nBody2D with 1000 timesteps</t>
+    <t>nBody2D with 1000 timesteps</t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>nBody2D with 1000 timesteps mean</t>
+  </si>
+  <si>
+    <t>particles</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="166" formatCode="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -140,54 +97,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="16"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,93 +117,83 @@
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -345,15 +252,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF264478"/>
       <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -362,7 +287,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" lang="de-DE" sz="1600" spc="111" strike="noStrike">
+              <a:defRPr lang="de-DE" sz="1600" b="1" strike="noStrike" spc="111">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -370,7 +295,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" lang="de-DE" sz="1600" spc="111" strike="noStrike">
+              <a:rPr lang="de-DE" sz="1600" b="1" strike="noStrike" spc="111">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -391,6 +316,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -409,12 +335,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -424,24 +347,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -450,13 +380,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$A$5:$A$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -473,43 +410,39 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$5:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.000387</c:v>
+                  <c:v>3.8699999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00038</c:v>
+                  <c:v>3.8000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000372</c:v>
+                  <c:v>3.7199999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000376</c:v>
+                  <c:v>3.7599999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00037</c:v>
+                  <c:v>3.6999999999999999E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29C7-2E4B-A8C6-DC06798C8CA0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -526,12 +459,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -541,24 +471,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -567,13 +504,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$A$5:$A$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -590,43 +534,39 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$C$5:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.031638</c:v>
+                  <c:v>3.1637999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.031699</c:v>
+                  <c:v>3.1698999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.031637</c:v>
+                  <c:v>3.1636999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.031662</c:v>
+                  <c:v>3.1662000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.031626</c:v>
+                  <c:v>3.1626000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-29C7-2E4B-A8C6-DC06798C8CA0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -643,12 +583,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -658,24 +595,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -684,13 +628,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$A$5:$A$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -707,43 +658,39 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$D$5:$D$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.786064</c:v>
+                  <c:v>0.78606399999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.785438</c:v>
+                  <c:v>0.78543799999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.785615</c:v>
+                  <c:v>0.78561499999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.785583</c:v>
+                  <c:v>0.78558300000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.786391</c:v>
+                  <c:v>0.78639099999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-29C7-2E4B-A8C6-DC06798C8CA0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -760,12 +707,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffc000"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -775,24 +719,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -801,13 +752,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$A$5:$A$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -824,43 +782,39 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$E$5:$E$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.141384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.141341</c:v>
+                  <c:v>3.1413410000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.140836</c:v>
+                  <c:v>3.1408360000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.141284</c:v>
+                  <c:v>3.1412840000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.141052</c:v>
+                  <c:v>3.1410520000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-29C7-2E4B-A8C6-DC06798C8CA0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -877,12 +831,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -892,24 +843,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -918,13 +876,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$A$5:$A$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -941,43 +906,39 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$F$5:$F$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>313.868722</c:v>
+                  <c:v>313.86872199999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>310.842779</c:v>
+                  <c:v>310.84277900000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>313.234845</c:v>
+                  <c:v>313.23484500000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>314.958234</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>311.423453</c:v>
+                  <c:v>311.42345299999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-29C7-2E4B-A8C6-DC06798C8CA0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -987,19 +948,13 @@
               <c:f>Tabelle1!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="70ad47"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
-                <a:srgbClr val="70ad47"/>
+                <a:srgbClr val="70AD47"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1009,24 +964,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="70ad47"/>
+                <a:srgbClr val="70AD47"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1035,13 +997,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$A$5:$A$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -1058,28 +1027,24 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$G$5:$G$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-29C7-2E4B-A8C6-DC06798C8CA0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -1089,16 +1054,10 @@
               <c:f>Tabelle1!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="264478"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
                 <a:srgbClr val="264478"/>
@@ -1116,19 +1075,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1137,13 +1103,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$A$5:$A$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -1160,28 +1133,24 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$H$5:$H$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-29C7-2E4B-A8C6-DC06798C8CA0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -1191,19 +1160,13 @@
               <c:f>Tabelle1!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="9e480e"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
-                <a:srgbClr val="9e480e"/>
+                <a:srgbClr val="9E480E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1213,24 +1176,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="9e480e"/>
+                <a:srgbClr val="9E480E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1239,13 +1209,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$A$5:$A$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -1262,28 +1239,24 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$I$5:$I$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-29C7-2E4B-A8C6-DC06798C8CA0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -1293,16 +1266,10 @@
               <c:f>Tabelle1!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="636363"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
                 <a:srgbClr val="636363"/>
@@ -1320,19 +1287,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1341,13 +1315,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$A$5:$A$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -1364,29 +1345,33 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$J$5:$J$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-29C7-2E4B-A8C6-DC06798C8CA0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -1395,6 +1380,7 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="33655237"/>
         <c:axId val="96495934"/>
       </c:lineChart>
@@ -1409,7 +1395,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1422,7 +1408,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="de-DE" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr lang="de-DE" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1430,7 +1416,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="de-DE" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="de-DE" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1456,7 +1442,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1466,13 +1452,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="800" spc="111" strike="noStrike">
+              <a:defRPr sz="800" b="0" strike="noStrike" spc="111">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="96495934"/>
@@ -1496,7 +1483,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="de-DE" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr lang="de-DE" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1504,7 +1491,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="de-DE" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="de-DE" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1530,7 +1517,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1540,13 +1527,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="33655237"/>
@@ -1574,37 +1562,46 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1613,7 +1610,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" lang="de-DE" sz="1600" spc="111" strike="noStrike">
+              <a:defRPr lang="de-DE" sz="1600" b="1" strike="noStrike" spc="111">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1621,7 +1618,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" lang="de-DE" sz="1600" spc="111" strike="noStrike">
+              <a:rPr lang="de-DE" sz="1600" b="1" strike="noStrike" spc="111">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1642,6 +1639,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1660,12 +1658,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1675,24 +1670,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1701,13 +1703,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$A$5:$A$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -1724,43 +1733,39 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$B$5:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.000387</c:v>
+                  <c:v>3.8699999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.00038</c:v>
+                  <c:v>3.8000000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000372</c:v>
+                  <c:v>3.7199999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000376</c:v>
+                  <c:v>3.7599999999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.00037</c:v>
+                  <c:v>3.6999999999999999E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1D10-594C-A2C2-25694AC2F1E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1777,12 +1782,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1792,24 +1794,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1818,13 +1827,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$A$5:$A$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -1841,43 +1857,39 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$C$5:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.031638</c:v>
+                  <c:v>3.1637999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.031699</c:v>
+                  <c:v>3.1698999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.031637</c:v>
+                  <c:v>3.1636999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.031662</c:v>
+                  <c:v>3.1662000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.031626</c:v>
+                  <c:v>3.1626000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1D10-594C-A2C2-25694AC2F1E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1894,12 +1906,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1909,24 +1918,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -1935,13 +1951,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$A$5:$A$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -1958,43 +1981,39 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$D$5:$D$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.786064</c:v>
+                  <c:v>0.78606399999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.785438</c:v>
+                  <c:v>0.78543799999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.785615</c:v>
+                  <c:v>0.78561499999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.785583</c:v>
+                  <c:v>0.78558300000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.786391</c:v>
+                  <c:v>0.78639099999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1D10-594C-A2C2-25694AC2F1E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2011,12 +2030,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffc000"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2026,24 +2042,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ffc000"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2052,13 +2075,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$A$5:$A$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -2075,43 +2105,39 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$E$5:$E$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>3.141384</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.141341</c:v>
+                  <c:v>3.1413410000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.140836</c:v>
+                  <c:v>3.1408360000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.141284</c:v>
+                  <c:v>3.1412840000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.141052</c:v>
+                  <c:v>3.1410520000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1D10-594C-A2C2-25694AC2F1E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -2128,12 +2154,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2143,24 +2166,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2169,13 +2199,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$A$5:$A$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -2192,43 +2229,39 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$F$5:$F$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>313.868722</c:v>
+                  <c:v>313.86872199999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>310.842779</c:v>
+                  <c:v>310.84277900000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>313.234845</c:v>
+                  <c:v>313.23484500000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>314.958234</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>311.423453</c:v>
+                  <c:v>311.42345299999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1D10-594C-A2C2-25694AC2F1E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -2238,19 +2271,13 @@
               <c:f>Tabelle1!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="70ad47"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
-                <a:srgbClr val="70ad47"/>
+                <a:srgbClr val="70AD47"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2260,24 +2287,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="70ad47"/>
+                <a:srgbClr val="70AD47"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2286,13 +2320,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$A$5:$A$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -2309,28 +2350,24 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$G$5:$G$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1D10-594C-A2C2-25694AC2F1E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -2340,16 +2377,10 @@
               <c:f>Tabelle1!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="264478"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
                 <a:srgbClr val="264478"/>
@@ -2367,19 +2398,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2388,13 +2426,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$A$5:$A$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -2411,28 +2456,24 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$H$5:$H$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1D10-594C-A2C2-25694AC2F1E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -2442,19 +2483,13 @@
               <c:f>Tabelle1!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="9e480e"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
-                <a:srgbClr val="9e480e"/>
+                <a:srgbClr val="9E480E"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2464,24 +2499,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="9e480e"/>
+                <a:srgbClr val="9E480E"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2490,13 +2532,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$A$5:$A$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -2513,28 +2562,24 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$I$5:$I$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1D10-594C-A2C2-25694AC2F1E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
@@ -2544,16 +2589,10 @@
               <c:f>Tabelle1!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v/>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="636363"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
                 <a:srgbClr val="636363"/>
@@ -2571,19 +2610,26 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2592,13 +2638,20 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$A$5:$A$12</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -2615,29 +2668,33 @@
                 <c:pt idx="4">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$J$5:$J$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="8"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1D10-594C-A2C2-25694AC2F1E7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -2646,6 +2703,7 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="16311893"/>
         <c:axId val="49515006"/>
       </c:lineChart>
@@ -2660,7 +2718,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2673,7 +2731,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="de-DE" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr lang="de-DE" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2681,7 +2739,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="de-DE" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="de-DE" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2707,7 +2765,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2717,13 +2775,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="800" spc="111" strike="noStrike">
+              <a:defRPr sz="800" b="0" strike="noStrike" spc="111">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="49515006"/>
@@ -2748,7 +2807,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="de-DE" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr lang="de-DE" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2756,7 +2815,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="de-DE" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="de-DE" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2782,7 +2841,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -2792,13 +2851,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="16311893"/>
@@ -2826,37 +2886,46 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2865,7 +2934,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" lang="de-DE" sz="1600" spc="111" strike="noStrike">
+              <a:defRPr lang="de-DE" sz="1600" b="1" strike="noStrike" spc="111">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -2873,7 +2942,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" lang="de-DE" sz="1600" spc="111" strike="noStrike">
+              <a:rPr lang="de-DE" sz="1600" b="1" strike="noStrike" spc="111">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -2894,6 +2963,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -2906,18 +2976,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.315230</c:v>
+                  <c:v>0,315230</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2927,24 +2994,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2953,51 +3027,63 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$B$69:$B$72</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.003856</c:v>
+                  <c:v>3.8560000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.003862</c:v>
+                  <c:v>3.862E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.003653</c:v>
+                  <c:v>3.653E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.003804</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3.8040000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$C$69:$C$72</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.312553</c:v>
+                  <c:v>0.31255300000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.312345</c:v>
+                  <c:v>0.31234499999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.318494</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.318493</c:v>
+                  <c:v>0.31849300000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EDC2-FB41-BBAC-F6401C1E2F95}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3008,18 +3094,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.863456</c:v>
+                  <c:v>7,863456</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3029,24 +3112,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3055,51 +3145,63 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$B$69:$B$72</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.003856</c:v>
+                  <c:v>3.8560000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.003862</c:v>
+                  <c:v>3.862E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.003653</c:v>
+                  <c:v>3.653E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.003804</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3.8040000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$D$69:$D$72</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.858459</c:v>
+                  <c:v>7.8584589999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.853452</c:v>
+                  <c:v>7.8534519999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.858523</c:v>
+                  <c:v>7.8585229999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.865839</c:v>
+                  <c:v>7.8658390000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EDC2-FB41-BBAC-F6401C1E2F95}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3110,18 +3212,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>31.415380</c:v>
+                  <c:v>31,415380</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3131,24 +3230,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3157,52 +3263,72 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$B$69:$B$72</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.003856</c:v>
+                  <c:v>3.8560000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.003862</c:v>
+                  <c:v>3.862E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.003653</c:v>
+                  <c:v>3.653E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.003804</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3.8040000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$E$69:$E$72</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>31.413345</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.402342</c:v>
+                  <c:v>31.402342000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.453452</c:v>
+                  <c:v>31.453451999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.418598</c:v>
+                  <c:v>31.418597999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EDC2-FB41-BBAC-F6401C1E2F95}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -3211,6 +3337,7 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="68057042"/>
         <c:axId val="13610389"/>
       </c:lineChart>
@@ -3225,7 +3352,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3238,7 +3365,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="de-DE" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr lang="de-DE" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -3246,7 +3373,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="de-DE" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="de-DE" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -3265,14 +3392,14 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3282,13 +3409,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="800" spc="111" strike="noStrike">
+              <a:defRPr sz="800" b="0" strike="noStrike" spc="111">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="13610389"/>
@@ -3312,7 +3440,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="de-DE" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr lang="de-DE" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -3320,7 +3448,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="de-DE" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="de-DE" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -3346,7 +3474,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3356,13 +3484,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="68057042"/>
@@ -3390,37 +3519,46 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3429,7 +3567,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="1" lang="de-DE" sz="1600" spc="111" strike="noStrike">
+              <a:defRPr lang="de-DE" sz="1600" b="1" strike="noStrike" spc="111">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -3437,7 +3575,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1" lang="de-DE" sz="1600" spc="111" strike="noStrike">
+              <a:rPr lang="de-DE" sz="1600" b="1" strike="noStrike" spc="111">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -3458,6 +3596,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -3470,18 +3609,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.315230</c:v>
+                  <c:v>0,315230</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4472c4"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3491,24 +3627,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4472c4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3517,51 +3660,63 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$B$69:$B$72</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.003856</c:v>
+                  <c:v>3.8560000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.003862</c:v>
+                  <c:v>3.862E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.003653</c:v>
+                  <c:v>3.653E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.003804</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3.8040000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$C$69:$C$72</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.312553</c:v>
+                  <c:v>0.31255300000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.312345</c:v>
+                  <c:v>0.31234499999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.318494</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.318493</c:v>
+                  <c:v>0.31849300000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DA9-C54F-90E0-E0B4495D345B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3572,18 +3727,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.863456</c:v>
+                  <c:v>7,863456</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3593,24 +3745,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3619,51 +3778,63 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$B$69:$B$72</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.003856</c:v>
+                  <c:v>3.8560000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.003862</c:v>
+                  <c:v>3.862E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.003653</c:v>
+                  <c:v>3.653E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.003804</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3.8040000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$D$69:$D$72</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7.858459</c:v>
+                  <c:v>7.8584589999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.853452</c:v>
+                  <c:v>7.8534519999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.858523</c:v>
+                  <c:v>7.8585229999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.865839</c:v>
+                  <c:v>7.8658390000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2DA9-C54F-90E0-E0B4495D345B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3674,18 +3845,15 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>31.415380</c:v>
+                  <c:v>31,415380</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
-            </a:solidFill>
             <a:ln w="22320">
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3695,24 +3863,31 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="a5a5a5"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="808080"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -3721,52 +3896,72 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$B$69:$B$72</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.003856</c:v>
+                  <c:v>3.8560000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.003862</c:v>
+                  <c:v>3.862E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.003653</c:v>
+                  <c:v>3.653E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.003804</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>3.8040000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Tabelle1!$E$69:$E$72</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>31.413345</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.402342</c:v>
+                  <c:v>31.402342000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31.453452</c:v>
+                  <c:v>31.453451999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.418598</c:v>
+                  <c:v>31.418597999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2DA9-C54F-90E0-E0B4495D345B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -3775,6 +3970,7 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="18682051"/>
         <c:axId val="78057990"/>
       </c:lineChart>
@@ -3789,7 +3985,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3802,7 +3998,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="de-DE" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr lang="de-DE" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -3810,7 +4006,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="de-DE" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="de-DE" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -3829,14 +4025,14 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3846,13 +4042,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="800" spc="111" strike="noStrike">
+              <a:defRPr sz="800" b="0" strike="noStrike" spc="111">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="78057990"/>
@@ -3877,7 +4074,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" lang="de-DE" sz="900" spc="-1" strike="noStrike">
+                  <a:defRPr lang="de-DE" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -3885,7 +4082,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" lang="de-DE" sz="900" spc="-1" strike="noStrike">
+                  <a:rPr lang="de-DE" sz="900" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -3911,7 +4108,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3921,13 +4118,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="18682051"/>
@@ -3955,35 +4153,1041 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+            <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
               <a:solidFill>
                 <a:srgbClr val="595959"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$K$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tabelle1!$J$69:$J$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tabelle1!$K$69:$K$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.7996000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31542300000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8599458000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.4206234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A8D-6D4B-A899-B79317C11D7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="578244560"/>
+        <c:axId val="578246208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="578244560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Walltime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578246208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="578246208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>walltime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578244560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="343">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3997,14 +5201,20 @@
       <xdr:row>37</xdr:row>
       <xdr:rowOff>101880</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="50760" y="2465280"/>
-        <a:ext cx="11661480" cy="4824720"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4027,14 +5237,20 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Diagramm 2"/>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="50760" y="6999120"/>
-        <a:ext cx="11661480" cy="4824720"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4057,14 +5273,20 @@
       <xdr:row>97</xdr:row>
       <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1_0"/>
+        <xdr:cNvPr id="4" name="Diagramm 1_0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="13903560"/>
-        <a:ext cx="11661480" cy="4824720"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4087,14 +5309,20 @@
       <xdr:row>123</xdr:row>
       <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2_0"/>
+        <xdr:cNvPr id="5" name="Diagramm 2_0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="360" y="18856800"/>
-        <a:ext cx="11661480" cy="4824720"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4104,28 +5332,359 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>656167</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F622D64E-4533-D640-AFC1-1E823A920B1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N211"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A59" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H79" activeCellId="0" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="1" style="1" width="16.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="0" width="11.16"/>
+    <col min="1" max="8" width="16.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" customWidth="1"/>
+    <col min="21" max="22" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4143,21 +5702,21 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -4181,95 +5740,95 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="n">
-        <v>0.000387</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0.031638</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.786064</v>
-      </c>
-      <c r="E5" s="4" t="n">
+      <c r="B5" s="4">
+        <v>3.8699999999999997E-4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.1637999999999999E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.78606399999999998</v>
+      </c>
+      <c r="E5" s="4">
         <v>3.141384</v>
       </c>
-      <c r="F5" s="4" t="n">
-        <v>313.868722</v>
+      <c r="F5" s="4">
+        <v>313.86872199999999</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>0.00038</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.031699</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.785438</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.141341</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>310.842779</v>
+      <c r="B6" s="4">
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.1698999999999998E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.78543799999999997</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3.1413410000000002</v>
+      </c>
+      <c r="F6" s="4">
+        <v>310.84277900000001</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>0.000372</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.031637</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.785615</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>3.140836</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>313.234845</v>
+      <c r="B7" s="4">
+        <v>3.7199999999999999E-4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3.1636999999999998E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.78561499999999995</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3.1408360000000002</v>
+      </c>
+      <c r="F7" s="4">
+        <v>313.23484500000001</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="n">
-        <v>0.000376</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.031662</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.785583</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.141284</v>
-      </c>
-      <c r="F8" s="4" t="n">
+      <c r="B8" s="4">
+        <v>3.7599999999999998E-4</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3.1662000000000003E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.78558300000000003</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.1412840000000002</v>
+      </c>
+      <c r="F8" s="4">
         <v>314.958234</v>
       </c>
       <c r="G8" s="4"/>
@@ -4277,31 +5836,31 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>0.00037</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.031626</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.786391</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.141052</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>311.423453</v>
+      <c r="B9" s="4">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3.1626000000000001E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.78639099999999995</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3.1410520000000002</v>
+      </c>
+      <c r="F9" s="4">
+        <v>311.42345299999999</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -4313,7 +5872,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -4325,7 +5884,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -4337,62 +5896,60 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0"/>
-      <c r="B62" s="0"/>
-      <c r="C62" s="0"/>
-      <c r="D62" s="0"/>
-      <c r="E62" s="0"/>
-      <c r="F62" s="0"/>
-      <c r="G62" s="0"/>
-      <c r="H62" s="0"/>
-      <c r="I62" s="0"/>
-      <c r="J62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0"/>
-      <c r="B63" s="0"/>
-      <c r="C63" s="0"/>
-      <c r="D63" s="0"/>
-      <c r="E63" s="0"/>
-      <c r="F63" s="0"/>
-      <c r="G63" s="0"/>
-      <c r="H63" s="0"/>
-      <c r="I63" s="0"/>
-      <c r="J63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0"/>
-      <c r="B64" s="0"/>
-      <c r="C64" s="0"/>
-      <c r="D64" s="0"/>
-      <c r="E64" s="0"/>
-      <c r="F64" s="0"/>
-      <c r="G64" s="0"/>
-      <c r="H64" s="0"/>
-      <c r="I64" s="0"/>
-      <c r="J64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H65" s="0"/>
-      <c r="I65" s="0"/>
-      <c r="J65" s="0"/>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="0"/>
-      <c r="I66" s="0"/>
-      <c r="J66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H66"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>2</v>
       </c>
@@ -4412,131 +5969,151 @@
         <v>7</v>
       </c>
       <c r="G67" s="4"/>
-      <c r="H67" s="0"/>
-      <c r="I67" s="0"/>
-      <c r="J67" s="0"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="n">
+      <c r="J67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
         <v>1</v>
       </c>
-      <c r="B68" s="4" t="n">
-        <v>0.003823</v>
-      </c>
-      <c r="C68" s="4" t="n">
-        <v>0.31523</v>
-      </c>
-      <c r="D68" s="4" t="n">
-        <v>7.863456</v>
-      </c>
-      <c r="E68" s="4" t="n">
-        <v>31.41538</v>
+      <c r="B68" s="4">
+        <v>3.823E-3</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0.31523000000000001</v>
+      </c>
+      <c r="D68" s="4">
+        <v>7.8634560000000002</v>
+      </c>
+      <c r="E68" s="4">
+        <v>31.415379999999999</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G68" s="4"/>
-      <c r="H68" s="0"/>
-      <c r="I68" s="0"/>
-      <c r="J68" s="0"/>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="n">
+      <c r="J68" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
         <v>2</v>
       </c>
-      <c r="B69" s="4" t="n">
-        <v>0.003856</v>
-      </c>
-      <c r="C69" s="4" t="n">
-        <v>0.312553</v>
-      </c>
-      <c r="D69" s="4" t="n">
-        <v>7.858459</v>
-      </c>
-      <c r="E69" s="4" t="n">
+      <c r="B69" s="4">
+        <v>3.8560000000000001E-3</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0.31255300000000003</v>
+      </c>
+      <c r="D69" s="4">
+        <v>7.8584589999999999</v>
+      </c>
+      <c r="E69" s="4">
         <v>31.413345</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G69" s="4"/>
-      <c r="H69" s="0"/>
-      <c r="I69" s="0"/>
-      <c r="J69" s="0"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="n">
+      <c r="J69" s="9">
+        <v>10</v>
+      </c>
+      <c r="K69" s="10">
+        <f>(B68+B69+B70+B71+B72)/5</f>
+        <v>3.7996000000000002E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
         <v>3</v>
       </c>
-      <c r="B70" s="4" t="n">
-        <v>0.003862</v>
-      </c>
-      <c r="C70" s="4" t="n">
-        <v>0.312345</v>
-      </c>
-      <c r="D70" s="4" t="n">
-        <v>7.853452</v>
-      </c>
-      <c r="E70" s="4" t="n">
-        <v>31.402342</v>
+      <c r="B70" s="4">
+        <v>3.862E-3</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0.31234499999999998</v>
+      </c>
+      <c r="D70" s="4">
+        <v>7.8534519999999999</v>
+      </c>
+      <c r="E70" s="4">
+        <v>31.402342000000001</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G70" s="4"/>
-      <c r="H70" s="0"/>
-      <c r="I70" s="0"/>
-      <c r="J70" s="0"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6" t="n">
+      <c r="J70" s="9">
+        <v>100</v>
+      </c>
+      <c r="K70" s="10">
+        <f>(C68+C69+C70+C71+C72)/5</f>
+        <v>0.31542300000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="6">
         <v>4</v>
       </c>
-      <c r="B71" s="4" t="n">
-        <v>0.003653</v>
-      </c>
-      <c r="C71" s="4" t="n">
+      <c r="B71" s="4">
+        <v>3.653E-3</v>
+      </c>
+      <c r="C71" s="4">
         <v>0.318494</v>
       </c>
-      <c r="D71" s="4" t="n">
-        <v>7.858523</v>
-      </c>
-      <c r="E71" s="4" t="n">
-        <v>31.453452</v>
+      <c r="D71" s="4">
+        <v>7.8585229999999999</v>
+      </c>
+      <c r="E71" s="4">
+        <v>31.453451999999999</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G71" s="4"/>
-      <c r="H71" s="0"/>
-      <c r="I71" s="0"/>
-      <c r="J71" s="0"/>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="n">
+      <c r="J71" s="10">
+        <v>500</v>
+      </c>
+      <c r="K71" s="10">
+        <f>(D68+D69+D70+D71+D72)/5</f>
+        <v>7.8599458000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="6">
         <v>5</v>
       </c>
-      <c r="B72" s="4" t="n">
-        <v>0.003804</v>
-      </c>
-      <c r="C72" s="4" t="n">
-        <v>0.318493</v>
-      </c>
-      <c r="D72" s="4" t="n">
-        <v>7.865839</v>
-      </c>
-      <c r="E72" s="4" t="n">
-        <v>31.418598</v>
+      <c r="B72" s="4">
+        <v>3.8040000000000001E-3</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0.31849300000000003</v>
+      </c>
+      <c r="D72" s="4">
+        <v>7.8658390000000002</v>
+      </c>
+      <c r="E72" s="4">
+        <v>31.418597999999999</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G72" s="4"/>
-      <c r="H72" s="0"/>
-      <c r="I72" s="0"/>
-      <c r="J72" s="0"/>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J72" s="10">
+        <v>1000</v>
+      </c>
+      <c r="K72" s="10">
+        <f>(E68+E69+E70+E71+E72)/5</f>
+        <v>31.4206234</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -4544,11 +6121,11 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
-      <c r="H73" s="0"/>
-      <c r="I73" s="0"/>
-      <c r="J73" s="0"/>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -4556,1667 +6133,1663 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
-      <c r="H74" s="0"/>
-      <c r="I74" s="0"/>
-      <c r="J74" s="0"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0"/>
-      <c r="B75" s="0"/>
-      <c r="C75" s="0"/>
-      <c r="D75" s="0"/>
-      <c r="E75" s="0"/>
-      <c r="F75" s="0"/>
-      <c r="G75" s="0"/>
-      <c r="H75" s="0"/>
-      <c r="I75" s="0"/>
-      <c r="J75" s="0"/>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0"/>
-      <c r="B76" s="0"/>
-      <c r="C76" s="0"/>
-      <c r="D76" s="0"/>
-      <c r="E76" s="0"/>
-      <c r="F76" s="0"/>
-      <c r="G76" s="0"/>
-      <c r="H76" s="0"/>
-      <c r="I76" s="0"/>
-      <c r="J76" s="0"/>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0"/>
-      <c r="B77" s="0"/>
-      <c r="C77" s="0"/>
-      <c r="D77" s="0"/>
-      <c r="E77" s="0"/>
-      <c r="F77" s="0"/>
-      <c r="G77" s="0"/>
-      <c r="H77" s="0"/>
-      <c r="I77" s="0"/>
-      <c r="J77" s="0"/>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0"/>
-      <c r="B78" s="0"/>
-      <c r="C78" s="0"/>
-      <c r="D78" s="0"/>
-      <c r="E78" s="0"/>
-      <c r="F78" s="0"/>
-      <c r="G78" s="0"/>
-      <c r="H78" s="0"/>
-      <c r="I78" s="0"/>
-      <c r="J78" s="0"/>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0"/>
-      <c r="B79" s="0"/>
-      <c r="C79" s="0"/>
-      <c r="D79" s="0"/>
-      <c r="E79" s="0"/>
-      <c r="F79" s="0"/>
-      <c r="G79" s="0"/>
-      <c r="H79" s="0"/>
-      <c r="I79" s="0"/>
-      <c r="J79" s="0"/>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0"/>
-      <c r="B80" s="0"/>
-      <c r="C80" s="0"/>
-      <c r="D80" s="0"/>
-      <c r="E80" s="0"/>
-      <c r="F80" s="0"/>
-      <c r="G80" s="0"/>
-      <c r="H80" s="0"/>
-      <c r="I80" s="0"/>
-      <c r="J80" s="0"/>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0"/>
-      <c r="B81" s="0"/>
-      <c r="C81" s="0"/>
-      <c r="D81" s="0"/>
-      <c r="E81" s="0"/>
-      <c r="F81" s="0"/>
-      <c r="G81" s="0"/>
-      <c r="H81" s="0"/>
-      <c r="I81" s="0"/>
-      <c r="J81" s="0"/>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0"/>
-      <c r="B82" s="0"/>
-      <c r="C82" s="0"/>
-      <c r="D82" s="0"/>
-      <c r="E82" s="0"/>
-      <c r="F82" s="0"/>
-      <c r="G82" s="0"/>
-      <c r="H82" s="0"/>
-      <c r="I82" s="0"/>
-      <c r="J82" s="0"/>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0"/>
-      <c r="B83" s="0"/>
-      <c r="C83" s="0"/>
-      <c r="D83" s="0"/>
-      <c r="E83" s="0"/>
-      <c r="F83" s="0"/>
-      <c r="G83" s="0"/>
-      <c r="H83" s="0"/>
-      <c r="I83" s="0"/>
-      <c r="J83" s="0"/>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0"/>
-      <c r="B84" s="0"/>
-      <c r="C84" s="0"/>
-      <c r="D84" s="0"/>
-      <c r="E84" s="0"/>
-      <c r="F84" s="0"/>
-      <c r="G84" s="0"/>
-      <c r="H84" s="0"/>
-      <c r="I84" s="0"/>
-      <c r="J84" s="0"/>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0"/>
-      <c r="B85" s="0"/>
-      <c r="C85" s="0"/>
-      <c r="D85" s="0"/>
-      <c r="E85" s="0"/>
-      <c r="F85" s="0"/>
-      <c r="G85" s="0"/>
-      <c r="H85" s="0"/>
-      <c r="I85" s="0"/>
-      <c r="J85" s="0"/>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0"/>
-      <c r="B86" s="0"/>
-      <c r="C86" s="0"/>
-      <c r="D86" s="0"/>
-      <c r="E86" s="0"/>
-      <c r="F86" s="0"/>
-      <c r="G86" s="0"/>
-      <c r="H86" s="0"/>
-      <c r="I86" s="0"/>
-      <c r="J86" s="0"/>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0"/>
-      <c r="B87" s="0"/>
-      <c r="C87" s="0"/>
-      <c r="D87" s="0"/>
-      <c r="E87" s="0"/>
-      <c r="F87" s="0"/>
-      <c r="G87" s="0"/>
-      <c r="H87" s="0"/>
-      <c r="I87" s="0"/>
-      <c r="J87" s="0"/>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0"/>
-      <c r="B88" s="0"/>
-      <c r="C88" s="0"/>
-      <c r="D88" s="0"/>
-      <c r="E88" s="0"/>
-      <c r="F88" s="0"/>
-      <c r="G88" s="0"/>
-      <c r="H88" s="0"/>
-      <c r="I88" s="0"/>
-      <c r="J88" s="0"/>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0"/>
-      <c r="B89" s="0"/>
-      <c r="C89" s="0"/>
-      <c r="D89" s="0"/>
-      <c r="E89" s="0"/>
-      <c r="F89" s="0"/>
-      <c r="G89" s="0"/>
-      <c r="H89" s="0"/>
-      <c r="I89" s="0"/>
-      <c r="J89" s="0"/>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0"/>
-      <c r="B90" s="0"/>
-      <c r="C90" s="0"/>
-      <c r="D90" s="0"/>
-      <c r="E90" s="0"/>
-      <c r="F90" s="0"/>
-      <c r="G90" s="0"/>
-      <c r="H90" s="0"/>
-      <c r="I90" s="0"/>
-      <c r="J90" s="0"/>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0"/>
-      <c r="B91" s="0"/>
-      <c r="C91" s="0"/>
-      <c r="D91" s="0"/>
-      <c r="E91" s="0"/>
-      <c r="F91" s="0"/>
-      <c r="G91" s="0"/>
-      <c r="H91" s="0"/>
-      <c r="I91" s="0"/>
-      <c r="J91" s="0"/>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0"/>
-      <c r="B92" s="0"/>
-      <c r="C92" s="0"/>
-      <c r="D92" s="0"/>
-      <c r="E92" s="0"/>
-      <c r="F92" s="0"/>
-      <c r="G92" s="0"/>
-      <c r="H92" s="0"/>
-      <c r="I92" s="0"/>
-      <c r="J92" s="0"/>
-    </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0"/>
-      <c r="B93" s="0"/>
-      <c r="C93" s="0"/>
-      <c r="D93" s="0"/>
-      <c r="E93" s="0"/>
-      <c r="F93" s="0"/>
-      <c r="G93" s="0"/>
-      <c r="H93" s="0"/>
-      <c r="I93" s="0"/>
-      <c r="J93" s="0"/>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0"/>
-      <c r="B94" s="0"/>
-      <c r="C94" s="0"/>
-      <c r="D94" s="0"/>
-      <c r="E94" s="0"/>
-      <c r="F94" s="0"/>
-      <c r="G94" s="0"/>
-      <c r="H94" s="0"/>
-      <c r="I94" s="0"/>
-      <c r="J94" s="0"/>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0"/>
-      <c r="B95" s="0"/>
-      <c r="C95" s="0"/>
-      <c r="D95" s="0"/>
-      <c r="E95" s="0"/>
-      <c r="F95" s="0"/>
-      <c r="G95" s="0"/>
-      <c r="H95" s="0"/>
-      <c r="I95" s="0"/>
-      <c r="J95" s="0"/>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0"/>
-      <c r="B96" s="0"/>
-      <c r="C96" s="0"/>
-      <c r="D96" s="0"/>
-      <c r="E96" s="0"/>
-      <c r="F96" s="0"/>
-      <c r="G96" s="0"/>
-      <c r="H96" s="0"/>
-      <c r="I96" s="0"/>
-      <c r="J96" s="0"/>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0"/>
-      <c r="B97" s="0"/>
-      <c r="C97" s="0"/>
-      <c r="D97" s="0"/>
-      <c r="E97" s="0"/>
-      <c r="F97" s="0"/>
-      <c r="G97" s="0"/>
-      <c r="H97" s="0"/>
-      <c r="I97" s="0"/>
-      <c r="J97" s="0"/>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0"/>
-      <c r="B98" s="0"/>
-      <c r="C98" s="0"/>
-      <c r="D98" s="0"/>
-      <c r="E98" s="0"/>
-      <c r="F98" s="0"/>
-      <c r="G98" s="0"/>
-      <c r="H98" s="0"/>
-      <c r="I98" s="0"/>
-      <c r="J98" s="0"/>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0"/>
-      <c r="B99" s="0"/>
-      <c r="C99" s="0"/>
-      <c r="D99" s="0"/>
-      <c r="E99" s="0"/>
-      <c r="F99" s="0"/>
-      <c r="G99" s="0"/>
-      <c r="H99" s="0"/>
-      <c r="I99" s="0"/>
-      <c r="J99" s="0"/>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0"/>
-      <c r="B100" s="0"/>
-      <c r="C100" s="0"/>
-      <c r="D100" s="0"/>
-      <c r="E100" s="0"/>
-      <c r="F100" s="0"/>
-      <c r="G100" s="0"/>
-      <c r="H100" s="0"/>
-      <c r="I100" s="0"/>
-      <c r="J100" s="0"/>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0"/>
-      <c r="B101" s="0"/>
-      <c r="C101" s="0"/>
-      <c r="D101" s="0"/>
-      <c r="E101" s="0"/>
-      <c r="F101" s="0"/>
-      <c r="G101" s="0"/>
-      <c r="H101" s="0"/>
-      <c r="I101" s="0"/>
-      <c r="J101" s="0"/>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0"/>
-      <c r="B102" s="0"/>
-      <c r="C102" s="0"/>
-      <c r="D102" s="0"/>
-      <c r="E102" s="0"/>
-      <c r="F102" s="0"/>
-      <c r="G102" s="0"/>
-      <c r="H102" s="0"/>
-      <c r="I102" s="0"/>
-      <c r="J102" s="0"/>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0"/>
-      <c r="B103" s="0"/>
-      <c r="C103" s="0"/>
-      <c r="D103" s="0"/>
-      <c r="E103" s="0"/>
-      <c r="F103" s="0"/>
-      <c r="G103" s="0"/>
-      <c r="H103" s="0"/>
-      <c r="I103" s="0"/>
-      <c r="J103" s="0"/>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0"/>
-      <c r="B104" s="0"/>
-      <c r="C104" s="0"/>
-      <c r="D104" s="0"/>
-      <c r="E104" s="0"/>
-      <c r="F104" s="0"/>
-      <c r="G104" s="0"/>
-      <c r="H104" s="0"/>
-      <c r="I104" s="0"/>
-      <c r="J104" s="0"/>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0"/>
-      <c r="B105" s="0"/>
-      <c r="C105" s="0"/>
-      <c r="D105" s="0"/>
-      <c r="E105" s="0"/>
-      <c r="F105" s="0"/>
-      <c r="G105" s="0"/>
-      <c r="H105" s="0"/>
-      <c r="I105" s="0"/>
-      <c r="J105" s="0"/>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0"/>
-      <c r="B106" s="0"/>
-      <c r="C106" s="0"/>
-      <c r="D106" s="0"/>
-      <c r="E106" s="0"/>
-      <c r="F106" s="0"/>
-      <c r="G106" s="0"/>
-      <c r="H106" s="0"/>
-      <c r="I106" s="0"/>
-      <c r="J106" s="0"/>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0"/>
-      <c r="B107" s="0"/>
-      <c r="C107" s="0"/>
-      <c r="D107" s="0"/>
-      <c r="E107" s="0"/>
-      <c r="F107" s="0"/>
-      <c r="G107" s="0"/>
-      <c r="H107" s="0"/>
-      <c r="I107" s="0"/>
-      <c r="J107" s="0"/>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0"/>
-      <c r="B108" s="0"/>
-      <c r="C108" s="0"/>
-      <c r="D108" s="0"/>
-      <c r="E108" s="0"/>
-      <c r="F108" s="0"/>
-      <c r="G108" s="0"/>
-      <c r="H108" s="0"/>
-      <c r="I108" s="0"/>
-      <c r="J108" s="0"/>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0"/>
-      <c r="B109" s="0"/>
-      <c r="C109" s="0"/>
-      <c r="D109" s="0"/>
-      <c r="E109" s="0"/>
-      <c r="F109" s="0"/>
-      <c r="G109" s="0"/>
-      <c r="H109" s="0"/>
-      <c r="I109" s="0"/>
-      <c r="J109" s="0"/>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0"/>
-      <c r="B110" s="0"/>
-      <c r="C110" s="0"/>
-      <c r="D110" s="0"/>
-      <c r="E110" s="0"/>
-      <c r="F110" s="0"/>
-      <c r="G110" s="0"/>
-      <c r="H110" s="0"/>
-      <c r="I110" s="0"/>
-      <c r="J110" s="0"/>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0"/>
-      <c r="B111" s="0"/>
-      <c r="C111" s="0"/>
-      <c r="D111" s="0"/>
-      <c r="E111" s="0"/>
-      <c r="F111" s="0"/>
-      <c r="G111" s="0"/>
-      <c r="H111" s="0"/>
-      <c r="I111" s="0"/>
-      <c r="J111" s="0"/>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0"/>
-      <c r="B112" s="0"/>
-      <c r="C112" s="0"/>
-      <c r="D112" s="0"/>
-      <c r="E112" s="0"/>
-      <c r="F112" s="0"/>
-      <c r="G112" s="0"/>
-      <c r="H112" s="0"/>
-      <c r="I112" s="0"/>
-      <c r="J112" s="0"/>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0"/>
-      <c r="B113" s="0"/>
-      <c r="C113" s="0"/>
-      <c r="D113" s="0"/>
-      <c r="E113" s="0"/>
-      <c r="F113" s="0"/>
-      <c r="G113" s="0"/>
-      <c r="H113" s="0"/>
-      <c r="I113" s="0"/>
-      <c r="J113" s="0"/>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0"/>
-      <c r="B114" s="0"/>
-      <c r="C114" s="0"/>
-      <c r="D114" s="0"/>
-      <c r="E114" s="0"/>
-      <c r="F114" s="0"/>
-      <c r="G114" s="0"/>
-      <c r="H114" s="0"/>
-      <c r="I114" s="0"/>
-      <c r="J114" s="0"/>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0"/>
-      <c r="B115" s="0"/>
-      <c r="C115" s="0"/>
-      <c r="D115" s="0"/>
-      <c r="E115" s="0"/>
-      <c r="F115" s="0"/>
-      <c r="G115" s="0"/>
-      <c r="H115" s="0"/>
-      <c r="I115" s="0"/>
-      <c r="J115" s="0"/>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0"/>
-      <c r="B116" s="0"/>
-      <c r="C116" s="0"/>
-      <c r="D116" s="0"/>
-      <c r="E116" s="0"/>
-      <c r="F116" s="0"/>
-      <c r="G116" s="0"/>
-      <c r="H116" s="0"/>
-      <c r="I116" s="0"/>
-      <c r="J116" s="0"/>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0"/>
-      <c r="B117" s="0"/>
-      <c r="C117" s="0"/>
-      <c r="D117" s="0"/>
-      <c r="E117" s="0"/>
-      <c r="F117" s="0"/>
-      <c r="G117" s="0"/>
-      <c r="H117" s="0"/>
-      <c r="I117" s="0"/>
-      <c r="J117" s="0"/>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0"/>
-      <c r="B118" s="0"/>
-      <c r="C118" s="0"/>
-      <c r="D118" s="0"/>
-      <c r="E118" s="0"/>
-      <c r="F118" s="0"/>
-      <c r="G118" s="0"/>
-      <c r="H118" s="0"/>
-      <c r="I118" s="0"/>
-      <c r="J118" s="0"/>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0"/>
-      <c r="B119" s="0"/>
-      <c r="C119" s="0"/>
-      <c r="D119" s="0"/>
-      <c r="E119" s="0"/>
-      <c r="F119" s="0"/>
-      <c r="G119" s="0"/>
-      <c r="H119" s="0"/>
-      <c r="I119" s="0"/>
-      <c r="J119" s="0"/>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0"/>
-      <c r="B120" s="0"/>
-      <c r="C120" s="0"/>
-      <c r="D120" s="0"/>
-      <c r="E120" s="0"/>
-      <c r="F120" s="0"/>
-      <c r="G120" s="0"/>
-      <c r="H120" s="0"/>
-      <c r="I120" s="0"/>
-      <c r="J120" s="0"/>
-    </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0"/>
-      <c r="B121" s="0"/>
-      <c r="C121" s="0"/>
-      <c r="D121" s="0"/>
-      <c r="E121" s="0"/>
-      <c r="F121" s="0"/>
-      <c r="G121" s="0"/>
-      <c r="H121" s="0"/>
-      <c r="I121" s="0"/>
-      <c r="J121" s="0"/>
-    </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0"/>
-      <c r="B122" s="0"/>
-      <c r="C122" s="0"/>
-      <c r="D122" s="0"/>
-      <c r="E122" s="0"/>
-      <c r="F122" s="0"/>
-      <c r="G122" s="0"/>
-      <c r="H122" s="0"/>
-      <c r="I122" s="0"/>
-      <c r="J122" s="0"/>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0"/>
-      <c r="B123" s="0"/>
-      <c r="C123" s="0"/>
-      <c r="D123" s="0"/>
-      <c r="E123" s="0"/>
-      <c r="F123" s="0"/>
-      <c r="G123" s="0"/>
-      <c r="H123" s="0"/>
-      <c r="I123" s="0"/>
-      <c r="J123" s="0"/>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0"/>
-      <c r="B124" s="0"/>
-      <c r="C124" s="0"/>
-      <c r="D124" s="0"/>
-      <c r="E124" s="0"/>
-      <c r="F124" s="0"/>
-      <c r="G124" s="0"/>
-      <c r="H124" s="0"/>
-      <c r="I124" s="0"/>
-      <c r="J124" s="0"/>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0"/>
-      <c r="B125" s="0"/>
-      <c r="C125" s="0"/>
-      <c r="D125" s="0"/>
-      <c r="E125" s="0"/>
-      <c r="F125" s="0"/>
-      <c r="G125" s="0"/>
-      <c r="H125" s="0"/>
-      <c r="I125" s="0"/>
-      <c r="J125" s="0"/>
-    </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0"/>
-      <c r="B126" s="0"/>
-      <c r="C126" s="0"/>
-      <c r="D126" s="0"/>
-      <c r="E126" s="0"/>
-      <c r="F126" s="0"/>
-      <c r="G126" s="0"/>
-      <c r="H126" s="0"/>
-      <c r="I126" s="0"/>
-      <c r="J126" s="0"/>
-    </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0"/>
-      <c r="B127" s="0"/>
-      <c r="C127" s="0"/>
-      <c r="D127" s="0"/>
-      <c r="E127" s="0"/>
-      <c r="F127" s="0"/>
-      <c r="G127" s="0"/>
-      <c r="H127" s="0"/>
-      <c r="I127" s="0"/>
-      <c r="J127" s="0"/>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0"/>
-      <c r="B128" s="0"/>
-      <c r="C128" s="0"/>
-      <c r="D128" s="0"/>
-      <c r="E128" s="0"/>
-      <c r="F128" s="0"/>
-      <c r="G128" s="0"/>
-      <c r="H128" s="0"/>
-      <c r="I128" s="0"/>
-      <c r="J128" s="0"/>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0"/>
-      <c r="B129" s="0"/>
-      <c r="C129" s="0"/>
-      <c r="D129" s="0"/>
-      <c r="E129" s="0"/>
-      <c r="F129" s="0"/>
-      <c r="G129" s="0"/>
-      <c r="H129" s="0"/>
-      <c r="I129" s="0"/>
-      <c r="J129" s="0"/>
-    </row>
-    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0"/>
-      <c r="B130" s="0"/>
-      <c r="C130" s="0"/>
-      <c r="D130" s="0"/>
-      <c r="E130" s="0"/>
-      <c r="F130" s="0"/>
-      <c r="G130" s="0"/>
-      <c r="H130" s="0"/>
-      <c r="I130" s="0"/>
-      <c r="J130" s="0"/>
-    </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0"/>
-      <c r="B131" s="0"/>
-      <c r="C131" s="0"/>
-      <c r="D131" s="0"/>
-      <c r="E131" s="0"/>
-      <c r="F131" s="0"/>
-      <c r="G131" s="0"/>
-      <c r="H131" s="0"/>
-      <c r="I131" s="0"/>
-      <c r="J131" s="0"/>
-    </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0"/>
-      <c r="B132" s="0"/>
-      <c r="C132" s="0"/>
-      <c r="D132" s="0"/>
-      <c r="E132" s="0"/>
-      <c r="F132" s="0"/>
-      <c r="G132" s="0"/>
-      <c r="H132" s="0"/>
-      <c r="I132" s="0"/>
-      <c r="J132" s="0"/>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0"/>
-      <c r="B133" s="0"/>
-      <c r="C133" s="0"/>
-      <c r="D133" s="0"/>
-      <c r="E133" s="0"/>
-      <c r="F133" s="0"/>
-      <c r="G133" s="0"/>
-      <c r="H133" s="0"/>
-      <c r="I133" s="0"/>
-      <c r="J133" s="0"/>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0"/>
-      <c r="B134" s="0"/>
-      <c r="C134" s="0"/>
-      <c r="D134" s="0"/>
-      <c r="E134" s="0"/>
-      <c r="F134" s="0"/>
-      <c r="G134" s="0"/>
-      <c r="H134" s="0"/>
-      <c r="I134" s="0"/>
-      <c r="J134" s="0"/>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0"/>
-      <c r="B135" s="0"/>
-      <c r="C135" s="0"/>
-      <c r="D135" s="0"/>
-      <c r="E135" s="0"/>
-      <c r="F135" s="0"/>
-      <c r="G135" s="0"/>
-      <c r="H135" s="0"/>
-      <c r="I135" s="0"/>
-      <c r="J135" s="0"/>
-    </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0"/>
-      <c r="B136" s="0"/>
-      <c r="C136" s="0"/>
-      <c r="D136" s="0"/>
-      <c r="E136" s="0"/>
-      <c r="F136" s="0"/>
-      <c r="G136" s="0"/>
-      <c r="H136" s="0"/>
-      <c r="I136" s="0"/>
-      <c r="J136" s="0"/>
-    </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0"/>
-      <c r="B137" s="0"/>
-      <c r="C137" s="0"/>
-      <c r="D137" s="0"/>
-      <c r="E137" s="0"/>
-      <c r="F137" s="0"/>
-      <c r="G137" s="0"/>
-      <c r="H137" s="0"/>
-      <c r="I137" s="0"/>
-      <c r="J137" s="0"/>
-    </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0"/>
-      <c r="B138" s="0"/>
-      <c r="C138" s="0"/>
-      <c r="D138" s="0"/>
-      <c r="E138" s="0"/>
-      <c r="F138" s="0"/>
-      <c r="G138" s="0"/>
-      <c r="H138" s="0"/>
-      <c r="I138" s="0"/>
-      <c r="J138" s="0"/>
-    </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0"/>
-      <c r="B139" s="0"/>
-      <c r="C139" s="0"/>
-      <c r="D139" s="0"/>
-      <c r="E139" s="0"/>
-      <c r="F139" s="0"/>
-      <c r="G139" s="0"/>
-      <c r="H139" s="0"/>
-      <c r="I139" s="0"/>
-      <c r="J139" s="0"/>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0"/>
-      <c r="B140" s="0"/>
-      <c r="C140" s="0"/>
-      <c r="D140" s="0"/>
-      <c r="E140" s="0"/>
-      <c r="F140" s="0"/>
-      <c r="G140" s="0"/>
-      <c r="H140" s="0"/>
-      <c r="I140" s="0"/>
-      <c r="J140" s="0"/>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0"/>
-      <c r="B141" s="0"/>
-      <c r="C141" s="0"/>
-      <c r="D141" s="0"/>
-      <c r="E141" s="0"/>
-      <c r="F141" s="0"/>
-      <c r="G141" s="0"/>
-      <c r="H141" s="0"/>
-      <c r="I141" s="0"/>
-      <c r="J141" s="0"/>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0"/>
-      <c r="B142" s="0"/>
-      <c r="C142" s="0"/>
-      <c r="D142" s="0"/>
-      <c r="E142" s="0"/>
-      <c r="F142" s="0"/>
-      <c r="G142" s="0"/>
-      <c r="H142" s="0"/>
-      <c r="I142" s="0"/>
-      <c r="J142" s="0"/>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0"/>
-      <c r="B143" s="0"/>
-      <c r="C143" s="0"/>
-      <c r="D143" s="0"/>
-      <c r="E143" s="0"/>
-      <c r="F143" s="0"/>
-      <c r="G143" s="0"/>
-      <c r="H143" s="0"/>
-      <c r="I143" s="0"/>
-      <c r="J143" s="0"/>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0"/>
-      <c r="B144" s="0"/>
-      <c r="C144" s="0"/>
-      <c r="D144" s="0"/>
-      <c r="E144" s="0"/>
-      <c r="F144" s="0"/>
-      <c r="G144" s="0"/>
-      <c r="H144" s="0"/>
-      <c r="I144" s="0"/>
-      <c r="J144" s="0"/>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0"/>
-      <c r="B145" s="0"/>
-      <c r="C145" s="0"/>
-      <c r="D145" s="0"/>
-      <c r="E145" s="0"/>
-      <c r="F145" s="0"/>
-      <c r="G145" s="0"/>
-      <c r="H145" s="0"/>
-      <c r="I145" s="0"/>
-      <c r="J145" s="0"/>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0"/>
-      <c r="B146" s="0"/>
-      <c r="C146" s="0"/>
-      <c r="D146" s="0"/>
-      <c r="E146" s="0"/>
-      <c r="F146" s="0"/>
-      <c r="G146" s="0"/>
-      <c r="H146" s="0"/>
-      <c r="I146" s="0"/>
-      <c r="J146" s="0"/>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0"/>
-      <c r="B147" s="0"/>
-      <c r="C147" s="0"/>
-      <c r="D147" s="0"/>
-      <c r="E147" s="0"/>
-      <c r="F147" s="0"/>
-      <c r="G147" s="0"/>
-      <c r="H147" s="0"/>
-      <c r="I147" s="0"/>
-      <c r="J147" s="0"/>
-    </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0"/>
-      <c r="B148" s="0"/>
-      <c r="C148" s="0"/>
-      <c r="D148" s="0"/>
-      <c r="E148" s="0"/>
-      <c r="F148" s="0"/>
-      <c r="G148" s="0"/>
-      <c r="H148" s="0"/>
-      <c r="I148" s="0"/>
-      <c r="J148" s="0"/>
-    </row>
-    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0"/>
-      <c r="B149" s="0"/>
-      <c r="C149" s="0"/>
-      <c r="D149" s="0"/>
-      <c r="E149" s="0"/>
-      <c r="F149" s="0"/>
-      <c r="G149" s="0"/>
-      <c r="H149" s="0"/>
-      <c r="I149" s="0"/>
-      <c r="J149" s="0"/>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0"/>
-      <c r="B150" s="0"/>
-      <c r="C150" s="0"/>
-      <c r="D150" s="0"/>
-      <c r="E150" s="0"/>
-      <c r="F150" s="0"/>
-      <c r="G150" s="0"/>
-      <c r="H150" s="0"/>
-      <c r="I150" s="0"/>
-      <c r="J150" s="0"/>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0"/>
-      <c r="B151" s="0"/>
-      <c r="C151" s="0"/>
-      <c r="D151" s="0"/>
-      <c r="E151" s="0"/>
-      <c r="F151" s="0"/>
-      <c r="G151" s="0"/>
-      <c r="H151" s="0"/>
-      <c r="I151" s="0"/>
-      <c r="J151" s="0"/>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0"/>
-      <c r="B152" s="0"/>
-      <c r="C152" s="0"/>
-      <c r="D152" s="0"/>
-      <c r="E152" s="0"/>
-      <c r="F152" s="0"/>
-      <c r="G152" s="0"/>
-      <c r="H152" s="0"/>
-      <c r="I152" s="0"/>
-      <c r="J152" s="0"/>
-    </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0"/>
-      <c r="B153" s="0"/>
-      <c r="C153" s="0"/>
-      <c r="D153" s="0"/>
-      <c r="E153" s="0"/>
-      <c r="F153" s="0"/>
-      <c r="G153" s="0"/>
-      <c r="H153" s="0"/>
-      <c r="I153" s="0"/>
-      <c r="J153" s="0"/>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0"/>
-      <c r="B154" s="0"/>
-      <c r="C154" s="0"/>
-      <c r="D154" s="0"/>
-      <c r="E154" s="0"/>
-      <c r="F154" s="0"/>
-      <c r="G154" s="0"/>
-      <c r="H154" s="0"/>
-      <c r="I154" s="0"/>
-      <c r="J154" s="0"/>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0"/>
-      <c r="B155" s="0"/>
-      <c r="C155" s="0"/>
-      <c r="D155" s="0"/>
-      <c r="E155" s="0"/>
-      <c r="F155" s="0"/>
-      <c r="G155" s="0"/>
-      <c r="H155" s="0"/>
-      <c r="I155" s="0"/>
-      <c r="J155" s="0"/>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0"/>
-      <c r="B156" s="0"/>
-      <c r="C156" s="0"/>
-      <c r="D156" s="0"/>
-      <c r="E156" s="0"/>
-      <c r="F156" s="0"/>
-      <c r="G156" s="0"/>
-      <c r="H156" s="0"/>
-      <c r="I156" s="0"/>
-      <c r="J156" s="0"/>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0"/>
-      <c r="B157" s="0"/>
-      <c r="C157" s="0"/>
-      <c r="D157" s="0"/>
-      <c r="E157" s="0"/>
-      <c r="F157" s="0"/>
-      <c r="G157" s="0"/>
-      <c r="H157" s="0"/>
-      <c r="I157" s="0"/>
-      <c r="J157" s="0"/>
-    </row>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0"/>
-      <c r="B158" s="0"/>
-      <c r="C158" s="0"/>
-      <c r="D158" s="0"/>
-      <c r="E158" s="0"/>
-      <c r="F158" s="0"/>
-      <c r="G158" s="0"/>
-      <c r="H158" s="0"/>
-      <c r="I158" s="0"/>
-      <c r="J158" s="0"/>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0"/>
-      <c r="B159" s="0"/>
-      <c r="C159" s="0"/>
-      <c r="D159" s="0"/>
-      <c r="E159" s="0"/>
-      <c r="F159" s="0"/>
-      <c r="G159" s="0"/>
-      <c r="H159" s="0"/>
-      <c r="I159" s="0"/>
-      <c r="J159" s="0"/>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0"/>
-      <c r="B160" s="0"/>
-      <c r="C160" s="0"/>
-      <c r="D160" s="0"/>
-      <c r="E160" s="0"/>
-      <c r="F160" s="0"/>
-      <c r="G160" s="0"/>
-      <c r="H160" s="0"/>
-      <c r="I160" s="0"/>
-      <c r="J160" s="0"/>
-    </row>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0"/>
-      <c r="B161" s="0"/>
-      <c r="C161" s="0"/>
-      <c r="D161" s="0"/>
-      <c r="E161" s="0"/>
-      <c r="F161" s="0"/>
-      <c r="G161" s="0"/>
-      <c r="H161" s="0"/>
-      <c r="I161" s="0"/>
-      <c r="J161" s="0"/>
-    </row>
-    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0"/>
-      <c r="B162" s="0"/>
-      <c r="C162" s="0"/>
-      <c r="D162" s="0"/>
-      <c r="E162" s="0"/>
-      <c r="F162" s="0"/>
-      <c r="G162" s="0"/>
-      <c r="H162" s="0"/>
-      <c r="I162" s="0"/>
-      <c r="J162" s="0"/>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0"/>
-      <c r="B163" s="0"/>
-      <c r="C163" s="0"/>
-      <c r="D163" s="0"/>
-      <c r="E163" s="0"/>
-      <c r="F163" s="0"/>
-      <c r="G163" s="0"/>
-      <c r="H163" s="0"/>
-      <c r="I163" s="0"/>
-      <c r="J163" s="0"/>
-    </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0"/>
-      <c r="B164" s="0"/>
-      <c r="C164" s="0"/>
-      <c r="D164" s="0"/>
-      <c r="E164" s="0"/>
-      <c r="F164" s="0"/>
-      <c r="G164" s="0"/>
-      <c r="H164" s="0"/>
-      <c r="I164" s="0"/>
-      <c r="J164" s="0"/>
-    </row>
-    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0"/>
-      <c r="B165" s="0"/>
-      <c r="C165" s="0"/>
-      <c r="D165" s="0"/>
-      <c r="E165" s="0"/>
-      <c r="F165" s="0"/>
-      <c r="G165" s="0"/>
-      <c r="H165" s="0"/>
-      <c r="I165" s="0"/>
-      <c r="J165" s="0"/>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0"/>
-      <c r="B166" s="0"/>
-      <c r="C166" s="0"/>
-      <c r="D166" s="0"/>
-      <c r="E166" s="0"/>
-      <c r="F166" s="0"/>
-      <c r="G166" s="0"/>
-      <c r="H166" s="0"/>
-      <c r="I166" s="0"/>
-      <c r="J166" s="0"/>
-    </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0"/>
-      <c r="B167" s="0"/>
-      <c r="C167" s="0"/>
-      <c r="D167" s="0"/>
-      <c r="E167" s="0"/>
-      <c r="F167" s="0"/>
-      <c r="G167" s="0"/>
-      <c r="H167" s="0"/>
-      <c r="I167" s="0"/>
-      <c r="J167" s="0"/>
-    </row>
-    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0"/>
-      <c r="B168" s="0"/>
-      <c r="C168" s="0"/>
-      <c r="D168" s="0"/>
-      <c r="E168" s="0"/>
-      <c r="F168" s="0"/>
-      <c r="G168" s="0"/>
-      <c r="H168" s="0"/>
-      <c r="I168" s="0"/>
-      <c r="J168" s="0"/>
-    </row>
-    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0"/>
-      <c r="B169" s="0"/>
-      <c r="C169" s="0"/>
-      <c r="D169" s="0"/>
-      <c r="E169" s="0"/>
-      <c r="F169" s="0"/>
-      <c r="G169" s="0"/>
-      <c r="H169" s="0"/>
-      <c r="I169" s="0"/>
-      <c r="J169" s="0"/>
-    </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0"/>
-      <c r="B170" s="0"/>
-      <c r="C170" s="0"/>
-      <c r="D170" s="0"/>
-      <c r="E170" s="0"/>
-      <c r="F170" s="0"/>
-      <c r="G170" s="0"/>
-      <c r="H170" s="0"/>
-      <c r="I170" s="0"/>
-      <c r="J170" s="0"/>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0"/>
-      <c r="B171" s="0"/>
-      <c r="C171" s="0"/>
-      <c r="D171" s="0"/>
-      <c r="E171" s="0"/>
-      <c r="F171" s="0"/>
-      <c r="G171" s="0"/>
-      <c r="H171" s="0"/>
-      <c r="I171" s="0"/>
-      <c r="J171" s="0"/>
-    </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0"/>
-      <c r="B172" s="0"/>
-      <c r="C172" s="0"/>
-      <c r="D172" s="0"/>
-      <c r="E172" s="0"/>
-      <c r="F172" s="0"/>
-      <c r="G172" s="0"/>
-      <c r="H172" s="0"/>
-      <c r="I172" s="0"/>
-      <c r="J172" s="0"/>
-    </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0"/>
-      <c r="B173" s="0"/>
-      <c r="C173" s="0"/>
-      <c r="D173" s="0"/>
-      <c r="E173" s="0"/>
-      <c r="F173" s="0"/>
-      <c r="G173" s="0"/>
-      <c r="H173" s="0"/>
-      <c r="I173" s="0"/>
-      <c r="J173" s="0"/>
-    </row>
-    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0"/>
-      <c r="B174" s="0"/>
-      <c r="C174" s="0"/>
-      <c r="D174" s="0"/>
-      <c r="E174" s="0"/>
-      <c r="F174" s="0"/>
-      <c r="G174" s="0"/>
-      <c r="H174" s="0"/>
-      <c r="I174" s="0"/>
-      <c r="J174" s="0"/>
-    </row>
-    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0"/>
-      <c r="B175" s="0"/>
-      <c r="C175" s="0"/>
-      <c r="D175" s="0"/>
-      <c r="E175" s="0"/>
-      <c r="F175" s="0"/>
-      <c r="G175" s="0"/>
-      <c r="H175" s="0"/>
-      <c r="I175" s="0"/>
-      <c r="J175" s="0"/>
-    </row>
-    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0"/>
-      <c r="B176" s="0"/>
-      <c r="C176" s="0"/>
-      <c r="D176" s="0"/>
-      <c r="E176" s="0"/>
-      <c r="F176" s="0"/>
-      <c r="G176" s="0"/>
-      <c r="H176" s="0"/>
-      <c r="I176" s="0"/>
-      <c r="J176" s="0"/>
-    </row>
-    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0"/>
-      <c r="B177" s="0"/>
-      <c r="C177" s="0"/>
-      <c r="D177" s="0"/>
-      <c r="E177" s="0"/>
-      <c r="F177" s="0"/>
-      <c r="G177" s="0"/>
-      <c r="H177" s="0"/>
-      <c r="I177" s="0"/>
-      <c r="J177" s="0"/>
-    </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0"/>
-      <c r="B178" s="0"/>
-      <c r="C178" s="0"/>
-      <c r="D178" s="0"/>
-      <c r="E178" s="0"/>
-      <c r="F178" s="0"/>
-      <c r="G178" s="0"/>
-      <c r="H178" s="0"/>
-      <c r="I178" s="0"/>
-      <c r="J178" s="0"/>
-    </row>
-    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0"/>
-      <c r="B179" s="0"/>
-      <c r="C179" s="0"/>
-      <c r="D179" s="0"/>
-      <c r="E179" s="0"/>
-      <c r="F179" s="0"/>
-      <c r="G179" s="0"/>
-      <c r="H179" s="0"/>
-      <c r="I179" s="0"/>
-      <c r="J179" s="0"/>
-    </row>
-    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0"/>
-      <c r="B180" s="0"/>
-      <c r="C180" s="0"/>
-      <c r="D180" s="0"/>
-      <c r="E180" s="0"/>
-      <c r="F180" s="0"/>
-      <c r="G180" s="0"/>
-      <c r="H180" s="0"/>
-      <c r="I180" s="0"/>
-      <c r="J180" s="0"/>
-    </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0"/>
-      <c r="B181" s="0"/>
-      <c r="C181" s="0"/>
-      <c r="D181" s="0"/>
-      <c r="E181" s="0"/>
-      <c r="F181" s="0"/>
-      <c r="G181" s="0"/>
-      <c r="H181" s="0"/>
-      <c r="I181" s="0"/>
-      <c r="J181" s="0"/>
-    </row>
-    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0"/>
-      <c r="B182" s="0"/>
-      <c r="C182" s="0"/>
-      <c r="D182" s="0"/>
-      <c r="E182" s="0"/>
-      <c r="F182" s="0"/>
-      <c r="G182" s="0"/>
-      <c r="H182" s="0"/>
-      <c r="I182" s="0"/>
-      <c r="J182" s="0"/>
-    </row>
-    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0"/>
-      <c r="B183" s="0"/>
-      <c r="C183" s="0"/>
-      <c r="D183" s="0"/>
-      <c r="E183" s="0"/>
-      <c r="F183" s="0"/>
-      <c r="G183" s="0"/>
-      <c r="H183" s="0"/>
-      <c r="I183" s="0"/>
-      <c r="J183" s="0"/>
-    </row>
-    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0"/>
-      <c r="B184" s="0"/>
-      <c r="C184" s="0"/>
-      <c r="D184" s="0"/>
-      <c r="E184" s="0"/>
-      <c r="F184" s="0"/>
-      <c r="G184" s="0"/>
-      <c r="H184" s="0"/>
-      <c r="I184" s="0"/>
-      <c r="J184" s="0"/>
-    </row>
-    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0"/>
-      <c r="B185" s="0"/>
-      <c r="C185" s="0"/>
-      <c r="D185" s="0"/>
-      <c r="E185" s="0"/>
-      <c r="F185" s="0"/>
-      <c r="G185" s="0"/>
-      <c r="H185" s="0"/>
-      <c r="I185" s="0"/>
-      <c r="J185" s="0"/>
-    </row>
-    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0"/>
-      <c r="B186" s="0"/>
-      <c r="C186" s="0"/>
-      <c r="D186" s="0"/>
-      <c r="E186" s="0"/>
-      <c r="F186" s="0"/>
-      <c r="G186" s="0"/>
-      <c r="H186" s="0"/>
-      <c r="I186" s="0"/>
-      <c r="J186" s="0"/>
-    </row>
-    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0"/>
-      <c r="B187" s="0"/>
-      <c r="C187" s="0"/>
-      <c r="D187" s="0"/>
-      <c r="E187" s="0"/>
-      <c r="F187" s="0"/>
-      <c r="G187" s="0"/>
-      <c r="H187" s="0"/>
-      <c r="I187" s="0"/>
-      <c r="J187" s="0"/>
-    </row>
-    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0"/>
-      <c r="B188" s="0"/>
-      <c r="C188" s="0"/>
-      <c r="D188" s="0"/>
-      <c r="E188" s="0"/>
-      <c r="F188" s="0"/>
-      <c r="G188" s="0"/>
-      <c r="H188" s="0"/>
-      <c r="I188" s="0"/>
-      <c r="J188" s="0"/>
-    </row>
-    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0"/>
-      <c r="B189" s="0"/>
-      <c r="C189" s="0"/>
-      <c r="D189" s="0"/>
-      <c r="E189" s="0"/>
-      <c r="F189" s="0"/>
-      <c r="G189" s="0"/>
-      <c r="H189" s="0"/>
-      <c r="I189" s="0"/>
-      <c r="J189" s="0"/>
-    </row>
-    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0"/>
-      <c r="B190" s="0"/>
-      <c r="C190" s="0"/>
-      <c r="D190" s="0"/>
-      <c r="E190" s="0"/>
-      <c r="F190" s="0"/>
-      <c r="G190" s="0"/>
-      <c r="H190" s="0"/>
-      <c r="I190" s="0"/>
-      <c r="J190" s="0"/>
-    </row>
-    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0"/>
-      <c r="B191" s="0"/>
-      <c r="C191" s="0"/>
-      <c r="D191" s="0"/>
-      <c r="E191" s="0"/>
-      <c r="F191" s="0"/>
-      <c r="G191" s="0"/>
-      <c r="H191" s="0"/>
-      <c r="I191" s="0"/>
-      <c r="J191" s="0"/>
-    </row>
-    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0"/>
-      <c r="B192" s="0"/>
-      <c r="C192" s="0"/>
-      <c r="D192" s="0"/>
-      <c r="E192" s="0"/>
-      <c r="F192" s="0"/>
-      <c r="G192" s="0"/>
-      <c r="H192" s="0"/>
-      <c r="I192" s="0"/>
-      <c r="J192" s="0"/>
-    </row>
-    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0"/>
-      <c r="B193" s="0"/>
-      <c r="C193" s="0"/>
-      <c r="D193" s="0"/>
-      <c r="E193" s="0"/>
-      <c r="F193" s="0"/>
-      <c r="G193" s="0"/>
-      <c r="H193" s="0"/>
-      <c r="I193" s="0"/>
-      <c r="J193" s="0"/>
-    </row>
-    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0"/>
-      <c r="B194" s="0"/>
-      <c r="C194" s="0"/>
-      <c r="D194" s="0"/>
-      <c r="E194" s="0"/>
-      <c r="F194" s="0"/>
-      <c r="G194" s="0"/>
-      <c r="H194" s="0"/>
-      <c r="I194" s="0"/>
-      <c r="J194" s="0"/>
-    </row>
-    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0"/>
-      <c r="B195" s="0"/>
-      <c r="C195" s="0"/>
-      <c r="D195" s="0"/>
-      <c r="E195" s="0"/>
-      <c r="F195" s="0"/>
-      <c r="G195" s="0"/>
-      <c r="H195" s="0"/>
-      <c r="I195" s="0"/>
-      <c r="J195" s="0"/>
-    </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0"/>
-      <c r="B196" s="0"/>
-      <c r="C196" s="0"/>
-      <c r="D196" s="0"/>
-      <c r="E196" s="0"/>
-      <c r="F196" s="0"/>
-      <c r="G196" s="0"/>
-      <c r="H196" s="0"/>
-      <c r="I196" s="0"/>
-      <c r="J196" s="0"/>
-    </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0"/>
-      <c r="B197" s="0"/>
-      <c r="C197" s="0"/>
-      <c r="D197" s="0"/>
-      <c r="E197" s="0"/>
-      <c r="F197" s="0"/>
-      <c r="G197" s="0"/>
-      <c r="H197" s="0"/>
-      <c r="I197" s="0"/>
-      <c r="J197" s="0"/>
-    </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0"/>
-      <c r="B198" s="0"/>
-      <c r="C198" s="0"/>
-      <c r="D198" s="0"/>
-      <c r="E198" s="0"/>
-      <c r="F198" s="0"/>
-      <c r="G198" s="0"/>
-      <c r="H198" s="0"/>
-      <c r="I198" s="0"/>
-      <c r="J198" s="0"/>
-    </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0"/>
-      <c r="B199" s="0"/>
-      <c r="C199" s="0"/>
-      <c r="D199" s="0"/>
-      <c r="E199" s="0"/>
-      <c r="F199" s="0"/>
-      <c r="G199" s="0"/>
-      <c r="H199" s="0"/>
-      <c r="I199" s="0"/>
-      <c r="J199" s="0"/>
-    </row>
-    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0"/>
-      <c r="B200" s="0"/>
-      <c r="C200" s="0"/>
-      <c r="D200" s="0"/>
-      <c r="E200" s="0"/>
-      <c r="F200" s="0"/>
-      <c r="G200" s="0"/>
-      <c r="H200" s="0"/>
-      <c r="I200" s="0"/>
-      <c r="J200" s="0"/>
-    </row>
-    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0"/>
-      <c r="B201" s="0"/>
-      <c r="C201" s="0"/>
-      <c r="D201" s="0"/>
-      <c r="E201" s="0"/>
-      <c r="F201" s="0"/>
-      <c r="G201" s="0"/>
-      <c r="H201" s="0"/>
-      <c r="I201" s="0"/>
-      <c r="J201" s="0"/>
-    </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0"/>
-      <c r="B202" s="0"/>
-      <c r="C202" s="0"/>
-      <c r="D202" s="0"/>
-      <c r="E202" s="0"/>
-      <c r="F202" s="0"/>
-      <c r="G202" s="0"/>
-      <c r="H202" s="0"/>
-      <c r="I202" s="0"/>
-      <c r="J202" s="0"/>
-    </row>
-    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0"/>
-      <c r="B203" s="0"/>
-      <c r="C203" s="0"/>
-      <c r="D203" s="0"/>
-      <c r="E203" s="0"/>
-      <c r="F203" s="0"/>
-      <c r="G203" s="0"/>
-      <c r="H203" s="0"/>
-      <c r="I203" s="0"/>
-      <c r="J203" s="0"/>
-    </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0"/>
-      <c r="B204" s="0"/>
-      <c r="C204" s="0"/>
-      <c r="D204" s="0"/>
-      <c r="E204" s="0"/>
-      <c r="F204" s="0"/>
-      <c r="G204" s="0"/>
-      <c r="H204" s="0"/>
-      <c r="I204" s="0"/>
-      <c r="J204" s="0"/>
-    </row>
-    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0"/>
-      <c r="B205" s="0"/>
-      <c r="C205" s="0"/>
-      <c r="D205" s="0"/>
-      <c r="E205" s="0"/>
-      <c r="F205" s="0"/>
-      <c r="G205" s="0"/>
-      <c r="H205" s="0"/>
-      <c r="I205" s="0"/>
-      <c r="J205" s="0"/>
-    </row>
-    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0"/>
-      <c r="B206" s="0"/>
-      <c r="C206" s="0"/>
-      <c r="D206" s="0"/>
-      <c r="E206" s="0"/>
-      <c r="F206" s="0"/>
-      <c r="G206" s="0"/>
-      <c r="H206" s="0"/>
-      <c r="I206" s="0"/>
-      <c r="J206" s="0"/>
-    </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0"/>
-      <c r="B207" s="0"/>
-      <c r="C207" s="0"/>
-      <c r="D207" s="0"/>
-      <c r="E207" s="0"/>
-      <c r="F207" s="0"/>
-      <c r="G207" s="0"/>
-      <c r="H207" s="0"/>
-      <c r="I207" s="0"/>
-      <c r="J207" s="0"/>
-    </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0"/>
-      <c r="B208" s="0"/>
-      <c r="C208" s="0"/>
-      <c r="D208" s="0"/>
-      <c r="E208" s="0"/>
-      <c r="F208" s="0"/>
-      <c r="G208" s="0"/>
-      <c r="H208" s="0"/>
-      <c r="I208" s="0"/>
-      <c r="J208" s="0"/>
-    </row>
-    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0"/>
-      <c r="B209" s="0"/>
-      <c r="C209" s="0"/>
-      <c r="D209" s="0"/>
-      <c r="E209" s="0"/>
-      <c r="F209" s="0"/>
-      <c r="G209" s="0"/>
-      <c r="H209" s="0"/>
-      <c r="I209" s="0"/>
-      <c r="J209" s="0"/>
-    </row>
-    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0"/>
-      <c r="B210" s="0"/>
-      <c r="C210" s="0"/>
-      <c r="D210" s="0"/>
-      <c r="E210" s="0"/>
-      <c r="F210" s="0"/>
-      <c r="G210" s="0"/>
-      <c r="H210" s="0"/>
-      <c r="I210" s="0"/>
-      <c r="J210" s="0"/>
-    </row>
-    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0"/>
-      <c r="B211" s="0"/>
-      <c r="C211" s="0"/>
-      <c r="D211" s="0"/>
-      <c r="E211" s="0"/>
-      <c r="F211" s="0"/>
-      <c r="G211" s="0"/>
-      <c r="H211" s="0"/>
-      <c r="I211" s="0"/>
-      <c r="J211" s="0"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90"/>
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91"/>
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93"/>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+      <c r="G94"/>
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+      <c r="G95"/>
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+      <c r="G97"/>
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+      <c r="G98"/>
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+      <c r="G99"/>
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+      <c r="G100"/>
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+      <c r="G101"/>
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+      <c r="G102"/>
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+      <c r="G103"/>
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+      <c r="G104"/>
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+      <c r="G105"/>
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+      <c r="G106"/>
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107"/>
+      <c r="F107"/>
+      <c r="G107"/>
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+      <c r="G111"/>
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+      <c r="G112"/>
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+      <c r="G113"/>
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+      <c r="G114"/>
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+      <c r="G115"/>
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+      <c r="G116"/>
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+      <c r="G117"/>
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+      <c r="G118"/>
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+      <c r="G119"/>
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+      <c r="G120"/>
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124"/>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+      <c r="G124"/>
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125"/>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+      <c r="G125"/>
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126"/>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+      <c r="G126"/>
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+      <c r="G127"/>
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128"/>
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+      <c r="G128"/>
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+      <c r="G129"/>
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A130"/>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+      <c r="G130"/>
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+      <c r="G131"/>
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132"/>
+      <c r="F132"/>
+      <c r="G132"/>
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133"/>
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133"/>
+      <c r="F133"/>
+      <c r="G133"/>
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A134"/>
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134"/>
+      <c r="F134"/>
+      <c r="G134"/>
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A135"/>
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135"/>
+      <c r="F135"/>
+      <c r="G135"/>
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136"/>
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136"/>
+      <c r="F136"/>
+      <c r="G136"/>
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137"/>
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137"/>
+      <c r="F137"/>
+      <c r="G137"/>
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138"/>
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138"/>
+      <c r="F138"/>
+      <c r="G138"/>
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139"/>
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139"/>
+      <c r="F139"/>
+      <c r="G139"/>
+      <c r="H139"/>
+      <c r="I139"/>
+      <c r="J139"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140"/>
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140"/>
+      <c r="F140"/>
+      <c r="G140"/>
+      <c r="H140"/>
+      <c r="I140"/>
+      <c r="J140"/>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141"/>
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141"/>
+      <c r="F141"/>
+      <c r="G141"/>
+      <c r="H141"/>
+      <c r="I141"/>
+      <c r="J141"/>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142"/>
+      <c r="B142"/>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142"/>
+      <c r="F142"/>
+      <c r="G142"/>
+      <c r="H142"/>
+      <c r="I142"/>
+      <c r="J142"/>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A143"/>
+      <c r="B143"/>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143"/>
+      <c r="F143"/>
+      <c r="G143"/>
+      <c r="H143"/>
+      <c r="I143"/>
+      <c r="J143"/>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A144"/>
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144"/>
+      <c r="F144"/>
+      <c r="G144"/>
+      <c r="H144"/>
+      <c r="I144"/>
+      <c r="J144"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A145"/>
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A146"/>
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A147"/>
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A148"/>
+      <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+      <c r="F148"/>
+      <c r="G148"/>
+      <c r="H148"/>
+      <c r="I148"/>
+      <c r="J148"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A149"/>
+      <c r="B149"/>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+      <c r="F149"/>
+      <c r="G149"/>
+      <c r="H149"/>
+      <c r="I149"/>
+      <c r="J149"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A150"/>
+      <c r="B150"/>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+      <c r="F150"/>
+      <c r="G150"/>
+      <c r="H150"/>
+      <c r="I150"/>
+      <c r="J150"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A151"/>
+      <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+      <c r="F151"/>
+      <c r="G151"/>
+      <c r="H151"/>
+      <c r="I151"/>
+      <c r="J151"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A152"/>
+      <c r="B152"/>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+      <c r="F152"/>
+      <c r="G152"/>
+      <c r="H152"/>
+      <c r="I152"/>
+      <c r="J152"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A153"/>
+      <c r="B153"/>
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153"/>
+      <c r="F153"/>
+      <c r="G153"/>
+      <c r="H153"/>
+      <c r="I153"/>
+      <c r="J153"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A154"/>
+      <c r="B154"/>
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
+      <c r="F154"/>
+      <c r="G154"/>
+      <c r="H154"/>
+      <c r="I154"/>
+      <c r="J154"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A155"/>
+      <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+      <c r="F155"/>
+      <c r="G155"/>
+      <c r="H155"/>
+      <c r="I155"/>
+      <c r="J155"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A156"/>
+      <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+      <c r="F156"/>
+      <c r="G156"/>
+      <c r="H156"/>
+      <c r="I156"/>
+      <c r="J156"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A157"/>
+      <c r="B157"/>
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
+      <c r="F157"/>
+      <c r="G157"/>
+      <c r="H157"/>
+      <c r="I157"/>
+      <c r="J157"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A158"/>
+      <c r="B158"/>
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158"/>
+      <c r="F158"/>
+      <c r="G158"/>
+      <c r="H158"/>
+      <c r="I158"/>
+      <c r="J158"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A159"/>
+      <c r="B159"/>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
+      <c r="F159"/>
+      <c r="G159"/>
+      <c r="H159"/>
+      <c r="I159"/>
+      <c r="J159"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A160"/>
+      <c r="B160"/>
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160"/>
+      <c r="F160"/>
+      <c r="G160"/>
+      <c r="H160"/>
+      <c r="I160"/>
+      <c r="J160"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161"/>
+      <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161"/>
+      <c r="F161"/>
+      <c r="G161"/>
+      <c r="H161"/>
+      <c r="I161"/>
+      <c r="J161"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A162"/>
+      <c r="B162"/>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162"/>
+      <c r="F162"/>
+      <c r="G162"/>
+      <c r="H162"/>
+      <c r="I162"/>
+      <c r="J162"/>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A163"/>
+      <c r="B163"/>
+      <c r="C163"/>
+      <c r="D163"/>
+      <c r="E163"/>
+      <c r="F163"/>
+      <c r="G163"/>
+      <c r="H163"/>
+      <c r="I163"/>
+      <c r="J163"/>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164"/>
+      <c r="B164"/>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164"/>
+      <c r="F164"/>
+      <c r="G164"/>
+      <c r="H164"/>
+      <c r="I164"/>
+      <c r="J164"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165"/>
+      <c r="B165"/>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165"/>
+      <c r="F165"/>
+      <c r="G165"/>
+      <c r="H165"/>
+      <c r="I165"/>
+      <c r="J165"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166"/>
+      <c r="B166"/>
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166"/>
+      <c r="F166"/>
+      <c r="G166"/>
+      <c r="H166"/>
+      <c r="I166"/>
+      <c r="J166"/>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167"/>
+      <c r="B167"/>
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167"/>
+      <c r="F167"/>
+      <c r="G167"/>
+      <c r="H167"/>
+      <c r="I167"/>
+      <c r="J167"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168"/>
+      <c r="B168"/>
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168"/>
+      <c r="F168"/>
+      <c r="G168"/>
+      <c r="H168"/>
+      <c r="I168"/>
+      <c r="J168"/>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169"/>
+      <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169"/>
+      <c r="F169"/>
+      <c r="G169"/>
+      <c r="H169"/>
+      <c r="I169"/>
+      <c r="J169"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170"/>
+      <c r="B170"/>
+      <c r="C170"/>
+      <c r="D170"/>
+      <c r="E170"/>
+      <c r="F170"/>
+      <c r="G170"/>
+      <c r="H170"/>
+      <c r="I170"/>
+      <c r="J170"/>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A171"/>
+      <c r="B171"/>
+      <c r="C171"/>
+      <c r="D171"/>
+      <c r="E171"/>
+      <c r="F171"/>
+      <c r="G171"/>
+      <c r="H171"/>
+      <c r="I171"/>
+      <c r="J171"/>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A172"/>
+      <c r="B172"/>
+      <c r="C172"/>
+      <c r="D172"/>
+      <c r="E172"/>
+      <c r="F172"/>
+      <c r="G172"/>
+      <c r="H172"/>
+      <c r="I172"/>
+      <c r="J172"/>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A173"/>
+      <c r="B173"/>
+      <c r="C173"/>
+      <c r="D173"/>
+      <c r="E173"/>
+      <c r="F173"/>
+      <c r="G173"/>
+      <c r="H173"/>
+      <c r="I173"/>
+      <c r="J173"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A174"/>
+      <c r="B174"/>
+      <c r="C174"/>
+      <c r="D174"/>
+      <c r="E174"/>
+      <c r="F174"/>
+      <c r="G174"/>
+      <c r="H174"/>
+      <c r="I174"/>
+      <c r="J174"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A175"/>
+      <c r="B175"/>
+      <c r="C175"/>
+      <c r="D175"/>
+      <c r="E175"/>
+      <c r="F175"/>
+      <c r="G175"/>
+      <c r="H175"/>
+      <c r="I175"/>
+      <c r="J175"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A176"/>
+      <c r="B176"/>
+      <c r="C176"/>
+      <c r="D176"/>
+      <c r="E176"/>
+      <c r="F176"/>
+      <c r="G176"/>
+      <c r="H176"/>
+      <c r="I176"/>
+      <c r="J176"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A177"/>
+      <c r="B177"/>
+      <c r="C177"/>
+      <c r="D177"/>
+      <c r="E177"/>
+      <c r="F177"/>
+      <c r="G177"/>
+      <c r="H177"/>
+      <c r="I177"/>
+      <c r="J177"/>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A178"/>
+      <c r="B178"/>
+      <c r="C178"/>
+      <c r="D178"/>
+      <c r="E178"/>
+      <c r="F178"/>
+      <c r="G178"/>
+      <c r="H178"/>
+      <c r="I178"/>
+      <c r="J178"/>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179"/>
+      <c r="B179"/>
+      <c r="C179"/>
+      <c r="D179"/>
+      <c r="E179"/>
+      <c r="F179"/>
+      <c r="G179"/>
+      <c r="H179"/>
+      <c r="I179"/>
+      <c r="J179"/>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180"/>
+      <c r="B180"/>
+      <c r="C180"/>
+      <c r="D180"/>
+      <c r="E180"/>
+      <c r="F180"/>
+      <c r="G180"/>
+      <c r="H180"/>
+      <c r="I180"/>
+      <c r="J180"/>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A181"/>
+      <c r="B181"/>
+      <c r="C181"/>
+      <c r="D181"/>
+      <c r="E181"/>
+      <c r="F181"/>
+      <c r="G181"/>
+      <c r="H181"/>
+      <c r="I181"/>
+      <c r="J181"/>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A182"/>
+      <c r="B182"/>
+      <c r="C182"/>
+      <c r="D182"/>
+      <c r="E182"/>
+      <c r="F182"/>
+      <c r="G182"/>
+      <c r="H182"/>
+      <c r="I182"/>
+      <c r="J182"/>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A183"/>
+      <c r="B183"/>
+      <c r="C183"/>
+      <c r="D183"/>
+      <c r="E183"/>
+      <c r="F183"/>
+      <c r="G183"/>
+      <c r="H183"/>
+      <c r="I183"/>
+      <c r="J183"/>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A184"/>
+      <c r="B184"/>
+      <c r="C184"/>
+      <c r="D184"/>
+      <c r="E184"/>
+      <c r="F184"/>
+      <c r="G184"/>
+      <c r="H184"/>
+      <c r="I184"/>
+      <c r="J184"/>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A185"/>
+      <c r="B185"/>
+      <c r="C185"/>
+      <c r="D185"/>
+      <c r="E185"/>
+      <c r="F185"/>
+      <c r="G185"/>
+      <c r="H185"/>
+      <c r="I185"/>
+      <c r="J185"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A186"/>
+      <c r="B186"/>
+      <c r="C186"/>
+      <c r="D186"/>
+      <c r="E186"/>
+      <c r="F186"/>
+      <c r="G186"/>
+      <c r="H186"/>
+      <c r="I186"/>
+      <c r="J186"/>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A187"/>
+      <c r="B187"/>
+      <c r="C187"/>
+      <c r="D187"/>
+      <c r="E187"/>
+      <c r="F187"/>
+      <c r="G187"/>
+      <c r="H187"/>
+      <c r="I187"/>
+      <c r="J187"/>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A188"/>
+      <c r="B188"/>
+      <c r="C188"/>
+      <c r="D188"/>
+      <c r="E188"/>
+      <c r="F188"/>
+      <c r="G188"/>
+      <c r="H188"/>
+      <c r="I188"/>
+      <c r="J188"/>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A189"/>
+      <c r="B189"/>
+      <c r="C189"/>
+      <c r="D189"/>
+      <c r="E189"/>
+      <c r="F189"/>
+      <c r="G189"/>
+      <c r="H189"/>
+      <c r="I189"/>
+      <c r="J189"/>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A190"/>
+      <c r="B190"/>
+      <c r="C190"/>
+      <c r="D190"/>
+      <c r="E190"/>
+      <c r="F190"/>
+      <c r="G190"/>
+      <c r="H190"/>
+      <c r="I190"/>
+      <c r="J190"/>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A191"/>
+      <c r="B191"/>
+      <c r="C191"/>
+      <c r="D191"/>
+      <c r="E191"/>
+      <c r="F191"/>
+      <c r="G191"/>
+      <c r="H191"/>
+      <c r="I191"/>
+      <c r="J191"/>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A192"/>
+      <c r="B192"/>
+      <c r="C192"/>
+      <c r="D192"/>
+      <c r="E192"/>
+      <c r="F192"/>
+      <c r="G192"/>
+      <c r="H192"/>
+      <c r="I192"/>
+      <c r="J192"/>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A193"/>
+      <c r="B193"/>
+      <c r="C193"/>
+      <c r="D193"/>
+      <c r="E193"/>
+      <c r="F193"/>
+      <c r="G193"/>
+      <c r="H193"/>
+      <c r="I193"/>
+      <c r="J193"/>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A194"/>
+      <c r="B194"/>
+      <c r="C194"/>
+      <c r="D194"/>
+      <c r="E194"/>
+      <c r="F194"/>
+      <c r="G194"/>
+      <c r="H194"/>
+      <c r="I194"/>
+      <c r="J194"/>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A195"/>
+      <c r="B195"/>
+      <c r="C195"/>
+      <c r="D195"/>
+      <c r="E195"/>
+      <c r="F195"/>
+      <c r="G195"/>
+      <c r="H195"/>
+      <c r="I195"/>
+      <c r="J195"/>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A196"/>
+      <c r="B196"/>
+      <c r="C196"/>
+      <c r="D196"/>
+      <c r="E196"/>
+      <c r="F196"/>
+      <c r="G196"/>
+      <c r="H196"/>
+      <c r="I196"/>
+      <c r="J196"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A197"/>
+      <c r="B197"/>
+      <c r="C197"/>
+      <c r="D197"/>
+      <c r="E197"/>
+      <c r="F197"/>
+      <c r="G197"/>
+      <c r="H197"/>
+      <c r="I197"/>
+      <c r="J197"/>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A198"/>
+      <c r="B198"/>
+      <c r="C198"/>
+      <c r="D198"/>
+      <c r="E198"/>
+      <c r="F198"/>
+      <c r="G198"/>
+      <c r="H198"/>
+      <c r="I198"/>
+      <c r="J198"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A199"/>
+      <c r="B199"/>
+      <c r="C199"/>
+      <c r="D199"/>
+      <c r="E199"/>
+      <c r="F199"/>
+      <c r="G199"/>
+      <c r="H199"/>
+      <c r="I199"/>
+      <c r="J199"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A200"/>
+      <c r="B200"/>
+      <c r="C200"/>
+      <c r="D200"/>
+      <c r="E200"/>
+      <c r="F200"/>
+      <c r="G200"/>
+      <c r="H200"/>
+      <c r="I200"/>
+      <c r="J200"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A201"/>
+      <c r="B201"/>
+      <c r="C201"/>
+      <c r="D201"/>
+      <c r="E201"/>
+      <c r="F201"/>
+      <c r="G201"/>
+      <c r="H201"/>
+      <c r="I201"/>
+      <c r="J201"/>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A202"/>
+      <c r="B202"/>
+      <c r="C202"/>
+      <c r="D202"/>
+      <c r="E202"/>
+      <c r="F202"/>
+      <c r="G202"/>
+      <c r="H202"/>
+      <c r="I202"/>
+      <c r="J202"/>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A203"/>
+      <c r="B203"/>
+      <c r="C203"/>
+      <c r="D203"/>
+      <c r="E203"/>
+      <c r="F203"/>
+      <c r="G203"/>
+      <c r="H203"/>
+      <c r="I203"/>
+      <c r="J203"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A204"/>
+      <c r="B204"/>
+      <c r="C204"/>
+      <c r="D204"/>
+      <c r="E204"/>
+      <c r="F204"/>
+      <c r="G204"/>
+      <c r="H204"/>
+      <c r="I204"/>
+      <c r="J204"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A205"/>
+      <c r="B205"/>
+      <c r="C205"/>
+      <c r="D205"/>
+      <c r="E205"/>
+      <c r="F205"/>
+      <c r="G205"/>
+      <c r="H205"/>
+      <c r="I205"/>
+      <c r="J205"/>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A206"/>
+      <c r="B206"/>
+      <c r="C206"/>
+      <c r="D206"/>
+      <c r="E206"/>
+      <c r="F206"/>
+      <c r="G206"/>
+      <c r="H206"/>
+      <c r="I206"/>
+      <c r="J206"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A207"/>
+      <c r="B207"/>
+      <c r="C207"/>
+      <c r="D207"/>
+      <c r="E207"/>
+      <c r="F207"/>
+      <c r="G207"/>
+      <c r="H207"/>
+      <c r="I207"/>
+      <c r="J207"/>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A208"/>
+      <c r="B208"/>
+      <c r="C208"/>
+      <c r="D208"/>
+      <c r="E208"/>
+      <c r="F208"/>
+      <c r="G208"/>
+      <c r="H208"/>
+      <c r="I208"/>
+      <c r="J208"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A209"/>
+      <c r="B209"/>
+      <c r="C209"/>
+      <c r="D209"/>
+      <c r="E209"/>
+      <c r="F209"/>
+      <c r="G209"/>
+      <c r="H209"/>
+      <c r="I209"/>
+      <c r="J209"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A210"/>
+      <c r="B210"/>
+      <c r="C210"/>
+      <c r="D210"/>
+      <c r="E210"/>
+      <c r="F210"/>
+      <c r="G210"/>
+      <c r="H210"/>
+      <c r="I210"/>
+      <c r="J210"/>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A211"/>
+      <c r="B211"/>
+      <c r="C211"/>
+      <c r="D211"/>
+      <c r="E211"/>
+      <c r="F211"/>
+      <c r="G211"/>
+      <c r="H211"/>
+      <c r="I211"/>
+      <c r="J211"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A66:F66"/>
+    <mergeCell ref="J67:K67"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>